--- a/500all/speech_level/speeches_CHRG-114hhrg22621.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22621.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. The Committee on Homeland Security's Subcommittee on Border and Maritime Security will come to order. The subcommittee is meeting today to examine DHS's efforts to secure the border and effectively measure border security.    Before I begin, I just want to take the opportunity to thank Mrs. Miller, the former Chairman of the subcommittee, for her more than 5 years of superb leadership on this subcommittee and the opportunity that has been provided to me to lead this subcommittee. She has been an outspoken advocate and champion for the border, visa, and maritime security, and fought tirelessly for enhancements in the Visa Waiver Program that were enacted into law in December. Just a few days ago, the President signed the first-ever CBP Authorization Act, authored by Mrs. Miller, and signed that into law.    I can say our security is much stronger because of the work of Chairman Miller. I want to yield some time to Chairman Miller.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Miller. Well, thank you very much, Chairman. I am delighted to call you that. As I think most people know, I am going to be not seeking reelection at the end of this term. I am a Michigan girl. Time for me to go home to Michigan, to the world's 2 most beautiful grandchildren.    But at any rate, I had thought about this a bit, and talking to Chairman McCaul, who indicated that he had an interest in appointing you in the next Congress to the Chairmanship for this subcommittee. I told him: Look, there is nobody better.    It is incredible the passion that you have for the border, not only the Southern Border but the Northern Border. I appreciate, particularly with Mr. Higgins sitting next to you, reminding the subcommittee as we go forward and into the next future Congresses how important all of our borders are certainly.    But I have had an opportunity to travel with you, down to your beautiful district, and talk to a lot of your folks down there. About a year ago this time, we took a group of us down to the border.    When we think about border issues and what a critical component it is of our National security, our homeland security, I just thought that having you take the Chairmanship early on here would make for a much smoother transition. I am just absolutely delighted, when we think about the background that you have, Bronze Star recipient, I think 25, 26 years in the military, you and I have fought together for the A-10. I will tell you what, I would go into battle with you anywhere, all day long, all day long.    So this subcommittee has a fantastic reputation on the Hill for doing very vigorous oversight. I know that will continue under your Chairmanship and your leadership. I think, as you mentioned, the Visa Waiver Program, that piece of legislation signed into law already, and other kinds of things, the CBP authorization, all of these and more, huge challenges that our Nation faces.    I know I leave this Chairmanship in exceptionally good hands. I look forward to continuing to work with you for the remainder of this Congress. Anything I can do, just call Michigan after that.    Thanks very much, and good luck.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you very much.    Before I begin, I just wanted to also extend my appreciation and thanks to our colleague, Candice Miller, for her work on the committee and the subcommittee. While this is a continuum, we still have a lot of work to do. The Northern Border is much more secure because of your leadership on this issue. I have enjoyed very much collaborating with you in the best interests of those Northern Border communities. So thank you very much, Candice.    I also want to congratulate my colleague from Arizona, Representative McSally, on her new position as Chair of the Subcommittee on Border and Maritime Security. In the absence of Ranking Member Filemon Vela, I am pleased to serve as the Ranking Member today, particularly given the topic at hand, border security.    Like my colleagues from Arizona, Texas, and Michigan, I also represent a border district, though mine is located on our Nation's border with Canada, much like Mrs. Miller. The 26th Congressional District of New York consists of portions of Erie and Niagara Counties, including the cities of Buffalo and Niagara Falls, and sits adjacent to America's maritime border with Canada, along the Niagara River and the eastern shores of Lake Erie.    Buffalo is home to the Peace Bridge, the busiest passenger crossing on the Northern Border, and a crucial link between the economies of western New York and southern Ontario and our 2 great Nations. Niagara Falls is home to 2 more international crossings, the Rainbow Bridge and the Whirlpool Bridge, which are also critical to travel and tourism in the region.    Cross-border travel and the efficient flow of goods and people across the border are vital to the communities I am privileged to represent. We are fortunate to have a strong partner in border security and facilitation matters on our Northern Border, that being Canada.    Like most Americans, I have a keen interest in ensuring that all of our Nation's borders are secure, including, of course, the Southern Border, but I will focus my comments today on our Northern Border, since our border with Canada is often somewhat foreign to these discussions.    The nature of the threat on the Northern Border, primarily terrorists and their instruments entering the United States across the vast open spaces of our 5,000-mile shared border with Canada, is certainly very different from the Southern Border where the volume of undocumented crossers from Mexico dwarfs the number that enter from Canada each year. Still, there are far fewer Federal resources dedicated to securing the Northern Border, which could be a cause for concern. Only a fraction of the total number of Border Patrol agents, air assets, cameras are deployed on the Northern Border, meaning situational awareness on the Northern Border is not what it should be.    Similarly, the United States Customs and Border Protection's Office of Field Operations continues to be understaffed at ports of entry based on the agency's own staffing model, which slows legitimate crossers, and makes it more difficult for officials to spot the handful who may pose concern. The fact that our shared border with Canada includes the Great Lakes and other waterways regularly enjoyed by thousands of legitimate boaters only adds to the challenge of achieving situational awareness in the region.    I hope to hear from our Customs and Border Protection witnesses today about how we can improve situational awareness along our Northern Border, perhaps in conjunction with our Canadian partners.    With respect to measuring border security, many of the metrics used on the Southern Border, such as the number of individuals apprehended or pounds of drugs seized, are just as appropriate for the Northern Border. I hope to hear from our Government Accountability Office witness today about what their work indicates about the state of border security, and especially what metrics might be most appropriate for the Northern Border.    Finally, I look forward to hearing from the entire panel today about how the Department of Homeland Security, with support from Congress, can continue to better secure all of our Nation's borders.    I thank the witnesses for being here. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -88,18 +79,12 @@
     <t xml:space="preserve">    Ms. McSally. We are pleased to be joined by three distinguished witness today to discuss this important issue.    Ronald Vitiello is the acting chief of the U.S. Border Patrol. As its chief operating officer, he is responsible for the daily operations of the U.S. Border Patrol and assists the commissioner of U.S. Customs and Border Protection in planning and directing Nation-wide enforcement. Chief Vitiello began his Border Patrol career in 1985 and has served in Swanton, Tucson, and Laredo sectors.    General Randolph Alles is the executive assistant commissioner for CBP's Office of Air and Marine, a position he has held since January 2013. In this role, Mr. Alles is charged with overseeing the AMO mission of using aviation and maritime assets to detect, interdict, and prevent acts of terrorism and unlawful movement of drugs and other contraband from entering the United States. Before joining AMO, he spent 35 years in the United States Marine Corps, retiring in 2011 as a major general.    Rebecca Gambler is director of the U.S. Government Accountability Office's Homeland Security and Justice Team, where she leads GAO's work on border security, immigration, and the Department of Homeland Security's management and transformation. Prior to joining GAO, Ms. Gambler worked at the National Endowment for Democracy's International Forum for Democratic Studies.    The witnesses' full written statements will appear in the record.    The Chair now recognizes Chief Vitiello for 5 minutes to testify.</t>
   </si>
   <si>
-    <t>Vitiello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vitiello. Thank you, Chairwoman McSally, Ranking Member Higgins, and the distinguished Members of the subcommittee, for the opportunity to testify today on behalf of the U.S. Border Patrol to discuss situational awareness and effectiveness.    Border Patrol operations along the U.S. border are constantly challenged by evolving tactics of transnational criminal organizations and individuals. To enhance our situational awareness and detect changes in threat levels and criminal flows across the border environment, the Border Patrol uses sophisticated technology and various tactics to gather information and intelligence. We collaborate with State, local, Tribal, as well as international law enforcement, intelligence, defense, and local community partners.    Thanks to the support of this subcommittee, CBP has deployed capable resources to increase our situational awareness along the Southern Border and our ability to rapidly respond as appropriate to areas of increasing risk. For example, integrated fixed towers deployed along the border in Arizona provide a long-range persistent surveillance. These tower systems automatically detect and track items of interest and provide centralized operations with video and geospatial location of suspected items of interest for identification and appropriate action.    Mobile technology, mounted on vehicles or carried by agents, is used in conjunction with fixed assets and provides the Border Patrol flexibility and agility to adapt to changing border conditions and threats. Tactical aerostats, acquired as part of the Department of Defense Reuse program, have also proven to be a vital asset in increasing CBP's situational awareness and our ability to detect, identify, and track illegal cross-border activity.    In addition to the use of surveillance technology, collaboration and information sharing with our law enforcement partners is a key component of building situational awareness and response capabilities along the Southwest Border. We work closely within CBP, especially with Air and Marine Operations, as well as multiple DHS, Federal, international, State, and local law enforcement agencies.    The Border Patrol is an active participant in the DHS Southern Border and Approaches Campaign and has a crucial role in the Joint Task Force-West, an integrated operational approach to addressing the threat of transnational criminal organizations along the Southwest Border. We also participate in regular briefings with Federal, State, and local partners regarding the current state of the border in order to monitor emerging trends and threats.    To ensure that the Border Patrol is positioned to respond to emerging threats, the Border Patrol uses a risk-based strategy to deploy resources. Our risk assessments are formed by multiple indicators, including the interdiction effectiveness rate, which is the percent of detected illegal entrants who are apprehended or turned back after illegally entering the United States between the ports of entry.    Furthermore, in coordination with the new DHS joint requirements process, the Border Patrol uses a Capability Gap Analysis Process to conduct mission analysis and identify capability gaps in specific geographic locations.    Because of the complexity of our border security mission, there is no single metric that can measure the full scope of our security efforts. Instead, we rely on a number of significant indicators to evaluate trends and developments over time, assess our performance, and refine our operations.    Tracking total apprehensions provides us information about the volume of people attempting to cross the border illegally. However, further analysis on the individual level can and does expand our understanding of changes in illegal activity between the ports.    For example, we consider the rates of recidivism or the percentage of apprehended individuals who have crossed the board illegally multiple times. This distinction is important in understanding the threat environment. Moreover, as a measure, it informs our decisions to redeploy resources to high-risk areas and to apply appropriate consequences in order to reduce repeat activity. Other analysis considerations include how many arrested individuals have criminal records, outstanding warrants, or were arrested while smuggling people or drugs.    This analysis, in conjunction with the information obtained from fixed and mobile surveillance systems and our law enforcement partners enhances situational awareness and better enables the Border Patrol to detect, identify, classify, monitor, and appropriately respond to threats and other challenges along our U.S. borders.    Thanks again for the opportunity to appear today. I look forward to answering your questions.    [The joint prepared statement of Mr. Vitiello and Mr. Alles follows:]   Joint Prepared Statement of Ronald Vitiello and Randolph D. Alles                             March 1, 2016    Chairwoman McSally, Ranking Member Vela, and distinguished Members of the subcommittee. It is a pleasure to appear before you today on behalf of U.S. Customs and Border Protection (CBP) to discuss measuring effectiveness and situational awareness of the Southwest Border.    Along the more than 5,000 miles of land border with Canada and Mexico, and approximately 95,000 miles of shoreline, CBP works with our DHS, interagency, and State and local partners to secure our borders and the associated airspace and maritime approaches to prevent illegal entry of people and goods into the United States, while also facilitating lawful trade and travel.    The border environment in which CBP works is dynamic and requires adaptation to respond to emerging threats and changing conditions. We appreciate the partnership and support we have received from this subcommittee, whose commitment to the security of the American people has enabled the continued deployment of resources and capabilities we need to secure the border.    The U.S. Border Patrol (USBP) and Air and Marine Operations (AMO), in conjunction with DHS Joint Task Force--West, have primary responsibility for the border security mission between the Nation's ports of entry (POEs) through the coordinated use of integrated assets to detect, interdict, and prevent acts of terrorism and the unlawful movement of people, illegal drugs, and contraband toward or across the borders of the United States. CBP implements intelligence-driven counter network strategies focused on areas of greatest risk, and deploys its capabilities to adapt to emerging threats along the border.    Detecting and interdicting terrorists and their weapons will always be a focused priority. Furthermore, the illegal cross-border activities of transnational criminal organizations (TCOs) and other bad actors pose a growing threat to border security and public safety. TCOs control most cross-border trafficking of guns and illegal drugs, and there is evidence of their increased involvement with human smuggling. Using a risk-informed and intelligence-driven approach, CBP will continue to enhance our efforts to anticipate and respond to threats to our National security, ensure the safety of the U.S. public, and deter, prevent, and disrupt future illegal activities.    As the preeminent law enforcement agency responsible for safeguarding and managing America's borders, CBP develops and sustains situational awareness of current and potential threats and associated risks. Situational awareness forms the cornerstone of our approach to proactively identify and eliminate criminal and illegal activity across the Nation's air, land, and maritime borders. It is derived from CBP's comprehensive understanding of the threat environment and provides an in-depth picture of the current operating conditions within a specific region of the border environment.    Situational awareness, like the border environment, is dynamic and grows through a variety of types of information collection--obtained through intelligence and surveillance technology--and analysis in the context of other regional or National cross-border trends, especially those concerning illicit trafficking and unlawful border crossings. CBP leverages a wide range of tactics, techniques, and sophisticated technologies to enhance situational awareness and increase CBP's ability to prevent and disrupt threats in the border environment.    The border environment in which CBP operates is challenged by continuously-evolving tactics of TCOs, terrorists, and other criminals. Detecting changes in threat levels and criminal flows across the border environment requires the use of various tactics to gather information and intelligence in both low- and high-threat areas. To promote and advance situational awareness, CBP deploys sophisticated surveillance and detection technology and collaborates with domestic and international law enforcement, intelligence, defense, and local community partners.                  advanced technology and capabilities    Thanks to the support of this subcommittee, CBP has deployed capable resources to increase our situational awareness, identify changes in the border environment, and rapidly respond, as appropriate, to areas of increasing risk. The use of technology in the border environment is an invaluable force multiplier to increase situational awareness.Along U.S. Borders    The information gleaned from fixed and mobile surveillance systems, ground sensors, imaging systems, and other advanced technologies enhances situational awareness and better enables CBP to detect, identify, classify, monitor, and appropriately respond to threats and other challenges along the U.S. borders.    The Integrated Fixed Tower (IFT) systems and Remote Video Surveillance Systems (RVSS) are fixed technology assets used in select areas along the Southwest Border. The IFT system is a series of fixed surveillance towers and equipment located in Arizona that provide long-range persistent surveillance. These tower systems automatically detect and track items of interest, and provide centralized operators with video and geospatial location of suspected items of interest for identification and appropriate action. RVSS provide short-, medium-, and long-range persistent surveillance mounted on stand-alone towers or other structures. The RVSS uses cameras, radio, and microwave transmitters to send video to a control room and enable a control room operator to remotely detect, identify, classify, and track targets using a video feed.    In some areas along the Southwest Border, CBP also uses Unattended Ground Sensors (UGS) and Imaging Sensors (IS), which contribute to improved situational awareness, agent safety, and rapid response. These sensors support our capability to detect and identify subjects. When a ground sensor is activated, an alarm is communicated to a data decoder that translates the sensor's activation data to a centralized operations center computer system. IS are a specific type of unattended ground sensor with an integrated camera and the ability to transmit images or video back to the operations center.    Fixed-system technology increases CBP's situational awareness and the Border Patrol's ability to detect, identify, classify, and track illicit activity by providing line-of-sight surveillance to efficiently detect incursions in varying terrain. CBP integrates mobile and portable systems to address areas where rugged terrain and dense ground cover may allow adversaries to penetrate through blind spots or avoid the coverage areas of fixed systems.    Working in conjunction with fixed surveillance assets, CBP's mobile technology assets provide flexibility and agility to adapt to changing border conditions and threats along the Southwest Border. Mobile Surveillance Capability systems provide long-range mobile surveillance with a suite of radar and camera sensors mounted on USBP vehicles. Mobile Video Surveillance Systems provide short- and medium-range mobile surveillance equipment mounted on telescoping masts via camera sensors mounted on USBP vehicles. Another system, the Agent Portable Surveillance System (APSS), does not need to be mounted to a vehicle. These current generation assets provide medium-range mobile surveillance mounted on a tripod and transported by three or more agents. Two agents remain on-site, one to operate the system, which automatically detects and tracks items of interest and provides the agent/operator with data and video of selected items of interest. Next generation APSS options are being explored.    These technologies not only provide significant security benefits and multiply the capabilities of law enforcement personnel to detect, identify, and respond to suspicious activity, but they also enhance public safety along the border. Mobile surveillance technology systems enable agents to position the technology where it is needed at a specific moment, extend our observational capabilities--in this case, by helping see through the darkness and increasing the accuracy and speed of our response.    CBP's Tactical Aerostats and Re-locatable Towers program, originally part of the Department of Defense (DoD) Reuse program, uses a mix of aerostats, towers, cameras, and radars to provide USBP with increased situational awareness through an advanced surveillance capability over a wide area. This capability has proven to be a vital asset in increasing CBP's ability to detect, identify, classify, and track activity. As of December 2015, USBP agents seized 122 tons of narcotics and conducted over 50,000 apprehensions of illegal border crossers with the assistance of existing aerostats and towers.    Technology is critical to border security operations. Through the deployment of these complementary and effective fixed and mobile systems, CBP gains more coverage and situational awareness of surveillance gaps, and increases its ability to adapt to changing conditions to effectively detect, identify, classify, track, and interdict potential threats along the borders.From the Air and the Sea    AMO increases CBP's situational awareness, enhances its detection and interdiction capabilities, and extends our border security zones, offering greater capacity to stop threats prior to reaching the Nation's shores. Through the use of coordinated and integrated air and marine capabilities--including fixed- and rotary-wing aircraft, unmanned aircraft systems (UAS), tethered aerostats and patrol and interdiction vessels--AMO detects, interdicts, and prevents acts of terrorism and the unlawful movement of people, illegal drugs, and other contraband toward or across U.S. borders. AMO conducts critical aerial and maritime surveillance, interdiction, investigation, and multi-domain awareness law enforcement operations, in addition to providing assistance to ground personnel.    AMO's fleet of aerial assets provides critical surveillance and situational awareness across the Nation's land borders, in the littoral waters, in the maritime approaches to the United States, and in the international source and transit zones.    AMO P-3 Long-Range Trackers and Airborne Early Warning Aircraft provide detection and interdiction capability in both the air and marine environments. Sophisticated sensors and high-endurance capability greatly increase CBP's range to counter illicit trafficking. P-3s are an integral part of the successful counter-narcotic missions operating in coordination with Joint Interagency Task Force (JIATF)--South. P-3s patrol in a 42 million-square-mile area that includes more than 41 nations, the Pacific Ocean, Gulf of Mexico, Caribbean Sea, and maritime approaches to the United States.    Additionally, UAS are increasingly instrumental in CBP's layered and integrated approach to border security. AMO has deployed 6 UAS along the Southwest Border to detect, identify, and classify moving tracks of interest over land and sea. Four of these aircraft have Vehicle and Dismount Exploitation Radar (VADER) capability, which is a side-looking airborne radar that detects illegal border crossers and relays their positions to field agents, while simultaneously capturing terrain change detection information across larger stretches of the border. UAS are also used to meet surveillance and other mission requirements along the Northern borders and in the drug source and transit zones. During fiscal year 2015, CBP's VADER-equipped UAS recorded 9,371 detections of illegal activity.    Multi-Role Enforcement Aircraft (MEA) have a multi-mode radar for use over water and land, an electro-optical/infrared camera system, and a satellite communications system. This highly adaptable and capable aircraft replaces several older, single-mission assets. An equally important and more capable asset is the DHC-8 Maritime Patrol Aircraft (MPA). It bridges the gap between the longer range P-3s and UAS and the smaller MEA. The DHC-8 is an invaluable situational awareness platform for AMO in the Gulf of Mexico and the Caribbean.    AMO uses the Tethered Aerostat Radar System (TARS) to provide land, maritime, and aerial domain awareness, including detection of low-altitude aircraft and other potential threats. CBP assumed responsibility of TARS from the U.S. Air Force in 2013, providing radar detection and monitoring of low-altitude aircraft and surface vessels along the U.S.-Mexico border, the Florida Straits, and a portion of the Caribbean. With 8 aerostat sites--6 along the Southwest Border, one in the Florida Keys, and one in Puerto Rico--the TARS elevated sensor mitigates the effect of the curvature of the earth and terrain-masking limitations associated with ground-based radars, enabling maximum long-range radar detection. In fiscal year 2014 and fiscal year 2015 combined, TARS recorded nearly 1,000 suspected cross-border attempts of non-commercial aircraft, about 50 percent of all border-related radar detections in the air domain.    Some of the most important advancements in increasing CBP's situational awareness are in the area of data integration and exploitation. Downlink technology, paired with the BigPipe system, allows AMO to provide a video feed and situational awareness to its law enforcement partners in real time. In addition, the Minotaur mission integration system allows multiple aircraft to share information from multiple sources, providing a never-before-seen level of air, land, and sea domain awareness. As the Minotaur system evolves across the fleet, it will provide increased awareness for a greater number of users as the information is integrated into the Air and Marine Operations Center     A vital component of DHS's domain awareness capabilities, CBP's AMOC integrates the surveillance and law enforcement data capabilities of DHS's Federal and international partners. CBP agents assigned to AMOC serve to correlate information from USBP technology with AMOC's systems to close the gaps in situational awareness. This combined effort has contributed to a reduction in the ultra-light aircraft activity on the Southwest Border. Fiscal year 2015 suspect activity has decreased to 59 events from a high of 332 in fiscal year 2010. Office of Field Operations (OFO) officers from the National Targeting Center imbedded at AMOC use their tools to close the seam between commercial and general aviation suspect activity. Overall, AMOC evaluated almost 500,000 internal air tracks in fiscal year 2015 with a 99.99 percent successful resolution rate. AMOC has integrated DoD and FAA sensors into the CBP network to expand our awareness well beyond the U.S. air and maritime borders. The stemming of the panga-type boat threats on the West Coast is attributed to the whole of DHS (CBP, U.S. Coast Guard, and U.S. Immigration and Customs Enforcement/Homeland Security Investigations) coordinated efforts with Mexican partners facilitated through this integration and collaboration.    Coordinating with extensive law enforcement and intelligence databases, including Classified systems and communication networks, AMOC enhances our situational awareness and uses its capability to coordinate a law enforcement response to suspect activity in the air, maritime, and land domains. AMOC systems are connected to nearly 150 locations in various agencies to enable collaboration. For example, in fiscal year 15 AMOC coordinated over 400 Mexican responses to illicit air traffic preventing it from crossing our borders.    CBP uses tactics such as periodic reconnaissance patrols, sign-cutting, tracking, and UAS flights to understand the threats faced along the Nation's borders and in the approaches. For example, CBP uses change-detection capabilities in various ways to gather information and intelligence in low-threat areas. Change-detection capabilities increase the level of situational awareness in all areas, including those areas currently assessed as lower risk. This allows CBP to continue focusing resources in areas where the highest risk exists, but to quickly identify any emerging threat adaptation through information and intelligence and take appropriate steps to rapidly minimize any new risk.    CBP's continued deployment of fixed and mobile border surveillance technology, integrated with AMOC's enhanced domain awareness capabilities, allows CBP the flexibility to shift more officers and agents from detection duties to the interdiction of illegal activities on our borders. Additionally, CBP is looking to the future by working closely with the DHS Science &amp; Technology Directorate to identify and develop additional technologies to improve our situational awareness, surveillance, and detection capabilities along our land and maritime borders.                  intelligence and information sharing    Criminal intelligence sharing is a key component in building situational awareness efforts along the Southwest Border. CBP and participating component agencies contribute to several initiatives to improve the combined intelligence capabilities of Federal, State, local, Tribal, and international partners along the Southwest Border.    CBP hosts a monthly briefing/teleconference with State and local partners in order to monitor emerging trends and threats along the Southwest Border and provide a cross-component, multi-agency venue for discussing trends and threats. The weekly briefing focuses on narcotics, weapons, currency interdictions and alien apprehensions both at and between the Southwest Border. These briefings/teleconferences currently include participants from: DHS Joint Task Force West, ICE; USCG; Drug Enforcement Administration; Federal Bureau of Investigation; U.S. Northern Command; Joint Interagency Task Force-South; Bureau of Alcohol, Tobacco, Firearms, and Explosives; U.S. Attorneys' Offices; Naval Investigative Command; State Fusion Centers; and local law enforcement as appropriate.                        operational coordination    Secretary Johnson's Unity of Effort initiative has put in place new and strengthened management processes at DHS headquarters to enable more effective DHS component operations. In addition, DHS-wide border security activities are being strategically guided by the Southern Border and Approaches Campaign. Aimed at leveraging the range of unique Department roles, responsibilities, and capabilities, the Campaign enhances our operational approach to working together in a more unified way to address comprehensive threat environments. This cross-component strategy includes the development of 3 pilot DHS Joint Task Forces (JTF)--JTF-West, JTF-East, and JTF-Investigations.    The creation of the JTFs, unified joint task forces along the Southwest Border and in the approaches to the United States, increases information sharing with Federal, State, and local law enforcement agencies; improves situational awareness, border-wide criminal intelligence-led interdiction operations; and addresses transnational threats and associated violence.    Over the last 10 years, DHS has significantly increased its border security capabilities by adding thousands of front-line law enforcement personnel, and making substantial investments in infrastructure, situational awareness, and surveillance technology, strategically deployed to areas of increasing challenge. This shift in border security resources and overall border security management is responsible for the significant decrease in the illegal flow of people across the Southwest Border over the last 10 years.    USBP and AMO use a risk-based strategy to deploy resources and address emerging threats. In coordination with the new DHS joint requirements process, USBP uses the Capability Gap Analysis Process (CGAP) to conduct mission analysis and identify capability gaps. From this analysis, USBP performs follow-on planning to identify operational requirements over the short-, mid-, and long-term and to identify potential solutions, which may (or may not) include technology, tactical infrastructure, or other solutions depending on the nature, scope, severity, and geographic location of a given capability gap. Terrain, threat, and other considerations vary greatly across sectors and regions, making a ``one size fits all'' approach ineffective. The AMO CGAP process is in the developmental stage at this time. Once completed, it will interface with USBP processes to further identify aviation technology solutions targeting border security initiatives.    As conditions on the ground or in the approaches change, CBP will adjust its operational posture and will continue to invest and focus border security resources in the most effective and efficient way possible to meet the Nation's border security needs.                         indicators of success    Thanks to this subcommittee's support, the Nation's long-term investment in border security continues to produce significant and positive results. Border Patrol apprehensions--an indicator of illegal entries--totaled 337,117 Nation-wide in fiscal year 2015, compared to 486,651 in fiscal year 2014. This represents a 30 percent decline in the last year and almost 80 percent below its most recent peak in fiscal year 2000. CBP Officers and Agents also played a critical counter-narcotics role, resulting in the seizure or disruption of more than 3.3 million pounds of narcotics in fiscal year 2015. In addition, the agency seized more than $129 million in unreported currency through integrated counter network operations. In fiscal year 2015, AMO contributed to the arrest of 4,485 suspects, the apprehension of more than 51,130 individuals, and the interdiction of more than 213,000 pounds of cocaine.    USBP uses the Consequence Delivery System (CDS) on the Southwest Border as a means to standardize decision making in the application of consequences and examines the efficiency and effectiveness of individual consequences on various types of deportable aliens. Recidivism and the average number of apprehensions per recidivist are the strongest indicators of CDS effectiveness. Since CDS implementation in fiscal year 2011, the annually reported recidivism rate has decreased from an average of 27 percent to 14 percent in fiscal year 2015 and average apprehensions per recidivist decreased from 2.71 to 2.38 in fiscal year 2015. Contributing factors to the reduction included reducing the percent of apprehensions resulting in a Voluntary Return, the least effective and efficient consequence, from 59 percent in fiscal year 2010 to 4 percent in fiscal year 2015; and applying more effective and efficient consequences to illegal aliens with a higher probability of making subsequent illegal entries.    CBP reports on several performance measures, in accordance with the Government Performance and Results (GRPA) Act of 1993 and the 2010 GPRA Modernization Act, and we are committed to the on-going monitoring and reporting of program accomplishments and progress toward meeting mission goals. AMO reports annually on a GPRA metric that tracks the percent of detected conventional aircraft incursions resolved along all borders of the United States. In fiscal year 2015, AMO reported a 99.3 percent border security success rate for this metric.    CBP recognizes the need for relevant performance measures to verify the effectiveness of our operations and assets. However, due to the sheer size of the air, land, and sea borders, and the motivation of individuals to illegally enter the United States, challenges still exist to measure our success. Furthermore, as border security operations become increasingly integrated, the ability to quantify individual contributions to shared outcomes becomes increasingly complex. AMO and USBP will continue to collaborate with internal and external partners to enhance current metrics, and develop new metrics, that provide meaningful outcome-focused measurements of illegal activity, trends, and effectiveness. We look forward to sharing these efforts with this subcommittee in the future.                               conclusion    To fully implement the risk-informed, counter network/intelligence-driven operations that focus our capabilities against the highest threats, CBP continually evaluates its effectiveness and enhances situational awareness and adjusts its resources as required.    The continued deployment of sophisticated fixed and mobile surveillance systems, in conjunction with intelligence and operational integration, enhances situational awareness and better enables CBP to plan effectively, enhance its agility, and appropriately respond to threats in the Nation's border regions and approaches to secure the homeland.    Chairwoman McSally, Ranking Member Vela, thank you for the opportunity to testify today. We look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Chief Vitiello.    The Chair now recognizes General Alles for 5 minutes.</t>
   </si>
   <si>
-    <t>Alles</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Alles. Good morning, Chairman McSally and Ranking Member Higgins and distinguished Members of the subcommittee. It is an honor to appear before you today to discuss the role of the U.S. Customs and Border Protection's Air and Marine Operations.    AMO is participating in the securing of our Nation's borders. We are a critical component of CBP's border security mission. We secure our Nation from transnational threats, including terrorism, weapons and drug smuggling, and other illicit activities to our 4 core competencies--interdiction, investigation, domain awareness, and contingencies in National taskings. Based at our 74 locations Nation-wide, AMO detects and interdicts the unlawful movement of people, illegal drugs, and contraband toward and across the air border and the maritime approaches and within the Nation's interior.    Our greatest asset is our people, from front-line to support personnel. Of note is our cadre of experienced agents. Our air and marine agents average 17 years of experience; 63 percent are military veterans. I am sure the entire committee can understand the importance of experienced pilots. But the Chairman, I think, as an aviator, you, in particular, will appreciate that our air interdiction agents average over 5,000 hours of total flight time.    These agents are trained and empowered to conduct investigations, serve warrants, and make arrests under a broad range of authorities. They operate a fleet of specially-equipped aircraft, marine patrol and interdiction vessels, and an array of advanced surveillance technologies.    Much of our effort is aimed toward border security. We flew the majority of our flight hours in fiscal year 2015 in close partnership with the U.S. Border Patrol.    We are having an impact. For instance, as we increased our flight hours in Arizona over the last 3 years, we have seen a corresponding decrease in apprehensions. Across our entire program, AMO contributed to more than 4,000 arrests, 50,000 apprehensions, the interdiction of 230,000 pounds of cocaine, and the seizure of $49 million in fiscal year 2015.    We also participate in joint operations with a variety of Federal partners. It includes the Coast Guard, the United State Navy. We conduct counternarcotic operations in the southeast coastal and source and transit zones of Central and South America.    We are the leading provider of airborne detection and monitoring to the Joint Interagency Task Force-South, based out of Key West. We also provide direct assistance to partner nations with shared interest in border security, most notably Mexico and Canada.    AMO has been extensively involved in planning and development of all three of the DHS Southern Border and Approaches Campaign JTF, Joint Task Force. In particular, AMO holds a deputy director's position with Joint Task Force-East in Portsmouth, Virginia, which is responsible for the southeast maritime approaches to the United States.    Air and Marine agents also bring their unique skill sets and knowledge of the air and maritime environment to various regional task forces, such as ICE-led Border Enforcement Security Task Force, more commonly called BEST. AMO operates the Air and Marine Operations Center in Riverside, California, a state-of-the-art law enforcement domain awareness center. AMOC uses advanced surveillance systems and intelligence databases to detect threats to the homeland and coordinate their interdiction. In fiscal year 2015, AMOC evaluated almost half a million air tracks with a 99.99 successful resolution rate.    Over the last 10 years, AMO has aligned and deployed our limited resources in response to regional illegal activity with the focus on increasing effectiveness. Our approach is not only informed by analysis of trends in illegal activity, but also an assessment of our assets' effectiveness and rate of return. This method informs our effective use of personnel in our diverse mission sets. Implementing this concept is critical to the effective use of resources Congress and the American people have come to expect from Air and Marine Operations.    Moving forward, we will continue to work with our partners to enhance our detection, investigation, and interdiction capabilities to address emerging threats and to protect American security interests along the Nation's borders in source and transit zones, in our customs waters, and within the Nation's interior.    Chairman McSally, Ranking Member Higgins, and distinguished Members of the subcommittee, thank you for this opportunity to testify today. I look forward to answering your questions.</t>
   </si>
   <si>
@@ -235,9 +220,6 @@
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Madam Chairman.    My first question, I am going to go specific and get more general. First off, thanks for being here. You all three have a very difficult job. I represent over 800 miles of the border, and I know the men and women in Border Patrol, what they are doing in order to keep us safe.    My first question is, with only 56 of the almost 2,000 miles of the Southern Border being under operational control, I want to join my Governor, Governor Abbott, and our colleague from Texas, Congressman Cuellar, in asking why was a 50 percent cut made for flight hours in support of Operation Phalanx despite full funding for the number of flight hours that were requested, and this while the number of migrant crossings have increased?    I think, General Alles, it would probably be best for you. Can you provide some clarity?</t>
   </si>
   <si>
@@ -293,9 +275,6 @@
   </si>
   <si>
     <t>412617</t>
-  </si>
-  <si>
-    <t>Norma J. Torres</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you.    Chief, over the past several years, CBP and the Coast Guard have seen an increase of smugglers using small boats, what is also known as pangas, along the California coast. Can you describe the challenges that you are having detecting and interdicting these pangas on the coastline? It is my understanding that too often you don't know they are there until they are on shore and the smugglers are long gone.</t>
@@ -940,11 +919,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -964,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -992,11 +967,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1018,11 +991,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1042,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1070,11 +1039,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1096,11 +1063,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1120,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1148,11 +1111,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1172,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1200,11 +1159,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1226,11 +1183,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1250,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1278,11 +1231,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1302,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1330,11 +1279,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1354,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1382,11 +1327,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1406,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1434,11 +1375,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1458,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1486,11 +1423,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1512,11 +1447,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1536,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1564,11 +1495,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1588,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1616,11 +1543,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1640,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1666,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1692,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1718,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1744,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1770,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1796,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1822,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1848,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1874,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1900,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1926,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1952,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1978,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2004,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2030,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2056,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2082,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2108,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2134,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2160,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2186,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2212,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2238,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2264,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2292,11 +2167,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2316,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2342,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2368,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2394,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2420,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2446,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2472,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2498,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2524,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2550,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2576,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2602,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2628,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2654,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2680,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2706,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2732,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" t="s">
-        <v>73</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2760,11 +2599,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2784,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2810,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2836,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2862,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2888,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2914,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
         <v>92</v>
-      </c>
-      <c r="G78" t="s">
-        <v>93</v>
-      </c>
-      <c r="H78" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2940,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2966,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2992,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3018,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3044,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3070,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3096,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3122,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
-      </c>
-      <c r="G86" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3148,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3174,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3200,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3226,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3254,11 +3055,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3278,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3306,11 +3103,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3330,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3358,11 +3151,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3382,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3410,11 +3199,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3434,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3462,11 +3247,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3486,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3514,11 +3295,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3538,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3566,11 +3343,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3590,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3618,11 +3391,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3642,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3670,11 +3439,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3694,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3722,11 +3487,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3748,11 +3511,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3772,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3800,11 +3559,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3824,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3852,11 +3607,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3876,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3904,11 +3655,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3928,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3956,11 +3703,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3980,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4008,11 +3751,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4032,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4060,11 +3799,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4084,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4112,11 +3847,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4136,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4164,11 +3895,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4188,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4214,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4240,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4266,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4292,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4318,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4344,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4370,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4396,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4422,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4448,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4474,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4500,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4526,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4552,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4578,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4604,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4632,11 +4327,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4656,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4684,11 +4375,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4708,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4736,11 +4423,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4760,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4788,11 +4471,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4812,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4840,11 +4519,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4864,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4892,11 +4567,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4916,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4944,11 +4615,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4968,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4996,11 +4663,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22621.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22621.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. The Committee on Homeland Security's Subcommittee on Border and Maritime Security will come to order. The subcommittee is meeting today to examine DHS's efforts to secure the border and effectively measure border security.    Before I begin, I just want to take the opportunity to thank Mrs. Miller, the former Chairman of the subcommittee, for her more than 5 years of superb leadership on this subcommittee and the opportunity that has been provided to me to lead this subcommittee. She has been an outspoken advocate and champion for the border, visa, and maritime security, and fought tirelessly for enhancements in the Visa Waiver Program that were enacted into law in December. Just a few days ago, the President signed the first-ever CBP Authorization Act, authored by Mrs. Miller, and signed that into law.    I can say our security is much stronger because of the work of Chairman Miller. I want to yield some time to Chairman Miller.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Miller. Well, thank you very much, Chairman. I am delighted to call you that. As I think most people know, I am going to be not seeking reelection at the end of this term. I am a Michigan girl. Time for me to go home to Michigan, to the world's 2 most beautiful grandchildren.    But at any rate, I had thought about this a bit, and talking to Chairman McCaul, who indicated that he had an interest in appointing you in the next Congress to the Chairmanship for this subcommittee. I told him: Look, there is nobody better.    It is incredible the passion that you have for the border, not only the Southern Border but the Northern Border. I appreciate, particularly with Mr. Higgins sitting next to you, reminding the subcommittee as we go forward and into the next future Congresses how important all of our borders are certainly.    But I have had an opportunity to travel with you, down to your beautiful district, and talk to a lot of your folks down there. About a year ago this time, we took a group of us down to the border.    When we think about border issues and what a critical component it is of our National security, our homeland security, I just thought that having you take the Chairmanship early on here would make for a much smoother transition. I am just absolutely delighted, when we think about the background that you have, Bronze Star recipient, I think 25, 26 years in the military, you and I have fought together for the A-10. I will tell you what, I would go into battle with you anywhere, all day long, all day long.    So this subcommittee has a fantastic reputation on the Hill for doing very vigorous oversight. I know that will continue under your Chairmanship and your leadership. I think, as you mentioned, the Visa Waiver Program, that piece of legislation signed into law already, and other kinds of things, the CBP authorization, all of these and more, huge challenges that our Nation faces.    I know I leave this Chairmanship in exceptionally good hands. I look forward to continuing to work with you for the remainder of this Congress. Anything I can do, just call Michigan after that.    Thanks very much, and good luck.</t>
   </si>
   <si>
@@ -70,6 +82,12 @@
     <t>400641</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you very much.    Before I begin, I just wanted to also extend my appreciation and thanks to our colleague, Candice Miller, for her work on the committee and the subcommittee. While this is a continuum, we still have a lot of work to do. The Northern Border is much more secure because of your leadership on this issue. I have enjoyed very much collaborating with you in the best interests of those Northern Border communities. So thank you very much, Candice.    I also want to congratulate my colleague from Arizona, Representative McSally, on her new position as Chair of the Subcommittee on Border and Maritime Security. In the absence of Ranking Member Filemon Vela, I am pleased to serve as the Ranking Member today, particularly given the topic at hand, border security.    Like my colleagues from Arizona, Texas, and Michigan, I also represent a border district, though mine is located on our Nation's border with Canada, much like Mrs. Miller. The 26th Congressional District of New York consists of portions of Erie and Niagara Counties, including the cities of Buffalo and Niagara Falls, and sits adjacent to America's maritime border with Canada, along the Niagara River and the eastern shores of Lake Erie.    Buffalo is home to the Peace Bridge, the busiest passenger crossing on the Northern Border, and a crucial link between the economies of western New York and southern Ontario and our 2 great Nations. Niagara Falls is home to 2 more international crossings, the Rainbow Bridge and the Whirlpool Bridge, which are also critical to travel and tourism in the region.    Cross-border travel and the efficient flow of goods and people across the border are vital to the communities I am privileged to represent. We are fortunate to have a strong partner in border security and facilitation matters on our Northern Border, that being Canada.    Like most Americans, I have a keen interest in ensuring that all of our Nation's borders are secure, including, of course, the Southern Border, but I will focus my comments today on our Northern Border, since our border with Canada is often somewhat foreign to these discussions.    The nature of the threat on the Northern Border, primarily terrorists and their instruments entering the United States across the vast open spaces of our 5,000-mile shared border with Canada, is certainly very different from the Southern Border where the volume of undocumented crossers from Mexico dwarfs the number that enter from Canada each year. Still, there are far fewer Federal resources dedicated to securing the Northern Border, which could be a cause for concern. Only a fraction of the total number of Border Patrol agents, air assets, cameras are deployed on the Northern Border, meaning situational awareness on the Northern Border is not what it should be.    Similarly, the United States Customs and Border Protection's Office of Field Operations continues to be understaffed at ports of entry based on the agency's own staffing model, which slows legitimate crossers, and makes it more difficult for officials to spot the handful who may pose concern. The fact that our shared border with Canada includes the Great Lakes and other waterways regularly enjoyed by thousands of legitimate boaters only adds to the challenge of achieving situational awareness in the region.    I hope to hear from our Customs and Border Protection witnesses today about how we can improve situational awareness along our Northern Border, perhaps in conjunction with our Canadian partners.    With respect to measuring border security, many of the metrics used on the Southern Border, such as the number of individuals apprehended or pounds of drugs seized, are just as appropriate for the Northern Border. I hope to hear from our Government Accountability Office witness today about what their work indicates about the state of border security, and especially what metrics might be most appropriate for the Northern Border.    Finally, I look forward to hearing from the entire panel today about how the Department of Homeland Security, with support from Congress, can continue to better secure all of our Nation's borders.    I thank the witnesses for being here. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -79,12 +97,18 @@
     <t xml:space="preserve">    Ms. McSally. We are pleased to be joined by three distinguished witness today to discuss this important issue.    Ronald Vitiello is the acting chief of the U.S. Border Patrol. As its chief operating officer, he is responsible for the daily operations of the U.S. Border Patrol and assists the commissioner of U.S. Customs and Border Protection in planning and directing Nation-wide enforcement. Chief Vitiello began his Border Patrol career in 1985 and has served in Swanton, Tucson, and Laredo sectors.    General Randolph Alles is the executive assistant commissioner for CBP's Office of Air and Marine, a position he has held since January 2013. In this role, Mr. Alles is charged with overseeing the AMO mission of using aviation and maritime assets to detect, interdict, and prevent acts of terrorism and unlawful movement of drugs and other contraband from entering the United States. Before joining AMO, he spent 35 years in the United States Marine Corps, retiring in 2011 as a major general.    Rebecca Gambler is director of the U.S. Government Accountability Office's Homeland Security and Justice Team, where she leads GAO's work on border security, immigration, and the Department of Homeland Security's management and transformation. Prior to joining GAO, Ms. Gambler worked at the National Endowment for Democracy's International Forum for Democratic Studies.    The witnesses' full written statements will appear in the record.    The Chair now recognizes Chief Vitiello for 5 minutes to testify.</t>
   </si>
   <si>
+    <t>Vitiello</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vitiello. Thank you, Chairwoman McSally, Ranking Member Higgins, and the distinguished Members of the subcommittee, for the opportunity to testify today on behalf of the U.S. Border Patrol to discuss situational awareness and effectiveness.    Border Patrol operations along the U.S. border are constantly challenged by evolving tactics of transnational criminal organizations and individuals. To enhance our situational awareness and detect changes in threat levels and criminal flows across the border environment, the Border Patrol uses sophisticated technology and various tactics to gather information and intelligence. We collaborate with State, local, Tribal, as well as international law enforcement, intelligence, defense, and local community partners.    Thanks to the support of this subcommittee, CBP has deployed capable resources to increase our situational awareness along the Southern Border and our ability to rapidly respond as appropriate to areas of increasing risk. For example, integrated fixed towers deployed along the border in Arizona provide a long-range persistent surveillance. These tower systems automatically detect and track items of interest and provide centralized operations with video and geospatial location of suspected items of interest for identification and appropriate action.    Mobile technology, mounted on vehicles or carried by agents, is used in conjunction with fixed assets and provides the Border Patrol flexibility and agility to adapt to changing border conditions and threats. Tactical aerostats, acquired as part of the Department of Defense Reuse program, have also proven to be a vital asset in increasing CBP's situational awareness and our ability to detect, identify, and track illegal cross-border activity.    In addition to the use of surveillance technology, collaboration and information sharing with our law enforcement partners is a key component of building situational awareness and response capabilities along the Southwest Border. We work closely within CBP, especially with Air and Marine Operations, as well as multiple DHS, Federal, international, State, and local law enforcement agencies.    The Border Patrol is an active participant in the DHS Southern Border and Approaches Campaign and has a crucial role in the Joint Task Force-West, an integrated operational approach to addressing the threat of transnational criminal organizations along the Southwest Border. We also participate in regular briefings with Federal, State, and local partners regarding the current state of the border in order to monitor emerging trends and threats.    To ensure that the Border Patrol is positioned to respond to emerging threats, the Border Patrol uses a risk-based strategy to deploy resources. Our risk assessments are formed by multiple indicators, including the interdiction effectiveness rate, which is the percent of detected illegal entrants who are apprehended or turned back after illegally entering the United States between the ports of entry.    Furthermore, in coordination with the new DHS joint requirements process, the Border Patrol uses a Capability Gap Analysis Process to conduct mission analysis and identify capability gaps in specific geographic locations.    Because of the complexity of our border security mission, there is no single metric that can measure the full scope of our security efforts. Instead, we rely on a number of significant indicators to evaluate trends and developments over time, assess our performance, and refine our operations.    Tracking total apprehensions provides us information about the volume of people attempting to cross the border illegally. However, further analysis on the individual level can and does expand our understanding of changes in illegal activity between the ports.    For example, we consider the rates of recidivism or the percentage of apprehended individuals who have crossed the board illegally multiple times. This distinction is important in understanding the threat environment. Moreover, as a measure, it informs our decisions to redeploy resources to high-risk areas and to apply appropriate consequences in order to reduce repeat activity. Other analysis considerations include how many arrested individuals have criminal records, outstanding warrants, or were arrested while smuggling people or drugs.    This analysis, in conjunction with the information obtained from fixed and mobile surveillance systems and our law enforcement partners enhances situational awareness and better enables the Border Patrol to detect, identify, classify, monitor, and appropriately respond to threats and other challenges along our U.S. borders.    Thanks again for the opportunity to appear today. I look forward to answering your questions.    [The joint prepared statement of Mr. Vitiello and Mr. Alles follows:]   Joint Prepared Statement of Ronald Vitiello and Randolph D. Alles                             March 1, 2016    Chairwoman McSally, Ranking Member Vela, and distinguished Members of the subcommittee. It is a pleasure to appear before you today on behalf of U.S. Customs and Border Protection (CBP) to discuss measuring effectiveness and situational awareness of the Southwest Border.    Along the more than 5,000 miles of land border with Canada and Mexico, and approximately 95,000 miles of shoreline, CBP works with our DHS, interagency, and State and local partners to secure our borders and the associated airspace and maritime approaches to prevent illegal entry of people and goods into the United States, while also facilitating lawful trade and travel.    The border environment in which CBP works is dynamic and requires adaptation to respond to emerging threats and changing conditions. We appreciate the partnership and support we have received from this subcommittee, whose commitment to the security of the American people has enabled the continued deployment of resources and capabilities we need to secure the border.    The U.S. Border Patrol (USBP) and Air and Marine Operations (AMO), in conjunction with DHS Joint Task Force--West, have primary responsibility for the border security mission between the Nation's ports of entry (POEs) through the coordinated use of integrated assets to detect, interdict, and prevent acts of terrorism and the unlawful movement of people, illegal drugs, and contraband toward or across the borders of the United States. CBP implements intelligence-driven counter network strategies focused on areas of greatest risk, and deploys its capabilities to adapt to emerging threats along the border.    Detecting and interdicting terrorists and their weapons will always be a focused priority. Furthermore, the illegal cross-border activities of transnational criminal organizations (TCOs) and other bad actors pose a growing threat to border security and public safety. TCOs control most cross-border trafficking of guns and illegal drugs, and there is evidence of their increased involvement with human smuggling. Using a risk-informed and intelligence-driven approach, CBP will continue to enhance our efforts to anticipate and respond to threats to our National security, ensure the safety of the U.S. public, and deter, prevent, and disrupt future illegal activities.    As the preeminent law enforcement agency responsible for safeguarding and managing America's borders, CBP develops and sustains situational awareness of current and potential threats and associated risks. Situational awareness forms the cornerstone of our approach to proactively identify and eliminate criminal and illegal activity across the Nation's air, land, and maritime borders. It is derived from CBP's comprehensive understanding of the threat environment and provides an in-depth picture of the current operating conditions within a specific region of the border environment.    Situational awareness, like the border environment, is dynamic and grows through a variety of types of information collection--obtained through intelligence and surveillance technology--and analysis in the context of other regional or National cross-border trends, especially those concerning illicit trafficking and unlawful border crossings. CBP leverages a wide range of tactics, techniques, and sophisticated technologies to enhance situational awareness and increase CBP's ability to prevent and disrupt threats in the border environment.    The border environment in which CBP operates is challenged by continuously-evolving tactics of TCOs, terrorists, and other criminals. Detecting changes in threat levels and criminal flows across the border environment requires the use of various tactics to gather information and intelligence in both low- and high-threat areas. To promote and advance situational awareness, CBP deploys sophisticated surveillance and detection technology and collaborates with domestic and international law enforcement, intelligence, defense, and local community partners.                  advanced technology and capabilities    Thanks to the support of this subcommittee, CBP has deployed capable resources to increase our situational awareness, identify changes in the border environment, and rapidly respond, as appropriate, to areas of increasing risk. The use of technology in the border environment is an invaluable force multiplier to increase situational awareness.Along U.S. Borders    The information gleaned from fixed and mobile surveillance systems, ground sensors, imaging systems, and other advanced technologies enhances situational awareness and better enables CBP to detect, identify, classify, monitor, and appropriately respond to threats and other challenges along the U.S. borders.    The Integrated Fixed Tower (IFT) systems and Remote Video Surveillance Systems (RVSS) are fixed technology assets used in select areas along the Southwest Border. The IFT system is a series of fixed surveillance towers and equipment located in Arizona that provide long-range persistent surveillance. These tower systems automatically detect and track items of interest, and provide centralized operators with video and geospatial location of suspected items of interest for identification and appropriate action. RVSS provide short-, medium-, and long-range persistent surveillance mounted on stand-alone towers or other structures. The RVSS uses cameras, radio, and microwave transmitters to send video to a control room and enable a control room operator to remotely detect, identify, classify, and track targets using a video feed.    In some areas along the Southwest Border, CBP also uses Unattended Ground Sensors (UGS) and Imaging Sensors (IS), which contribute to improved situational awareness, agent safety, and rapid response. These sensors support our capability to detect and identify subjects. When a ground sensor is activated, an alarm is communicated to a data decoder that translates the sensor's activation data to a centralized operations center computer system. IS are a specific type of unattended ground sensor with an integrated camera and the ability to transmit images or video back to the operations center.    Fixed-system technology increases CBP's situational awareness and the Border Patrol's ability to detect, identify, classify, and track illicit activity by providing line-of-sight surveillance to efficiently detect incursions in varying terrain. CBP integrates mobile and portable systems to address areas where rugged terrain and dense ground cover may allow adversaries to penetrate through blind spots or avoid the coverage areas of fixed systems.    Working in conjunction with fixed surveillance assets, CBP's mobile technology assets provide flexibility and agility to adapt to changing border conditions and threats along the Southwest Border. Mobile Surveillance Capability systems provide long-range mobile surveillance with a suite of radar and camera sensors mounted on USBP vehicles. Mobile Video Surveillance Systems provide short- and medium-range mobile surveillance equipment mounted on telescoping masts via camera sensors mounted on USBP vehicles. Another system, the Agent Portable Surveillance System (APSS), does not need to be mounted to a vehicle. These current generation assets provide medium-range mobile surveillance mounted on a tripod and transported by three or more agents. Two agents remain on-site, one to operate the system, which automatically detects and tracks items of interest and provides the agent/operator with data and video of selected items of interest. Next generation APSS options are being explored.    These technologies not only provide significant security benefits and multiply the capabilities of law enforcement personnel to detect, identify, and respond to suspicious activity, but they also enhance public safety along the border. Mobile surveillance technology systems enable agents to position the technology where it is needed at a specific moment, extend our observational capabilities--in this case, by helping see through the darkness and increasing the accuracy and speed of our response.    CBP's Tactical Aerostats and Re-locatable Towers program, originally part of the Department of Defense (DoD) Reuse program, uses a mix of aerostats, towers, cameras, and radars to provide USBP with increased situational awareness through an advanced surveillance capability over a wide area. This capability has proven to be a vital asset in increasing CBP's ability to detect, identify, classify, and track activity. As of December 2015, USBP agents seized 122 tons of narcotics and conducted over 50,000 apprehensions of illegal border crossers with the assistance of existing aerostats and towers.    Technology is critical to border security operations. Through the deployment of these complementary and effective fixed and mobile systems, CBP gains more coverage and situational awareness of surveillance gaps, and increases its ability to adapt to changing conditions to effectively detect, identify, classify, track, and interdict potential threats along the borders.From the Air and the Sea    AMO increases CBP's situational awareness, enhances its detection and interdiction capabilities, and extends our border security zones, offering greater capacity to stop threats prior to reaching the Nation's shores. Through the use of coordinated and integrated air and marine capabilities--including fixed- and rotary-wing aircraft, unmanned aircraft systems (UAS), tethered aerostats and patrol and interdiction vessels--AMO detects, interdicts, and prevents acts of terrorism and the unlawful movement of people, illegal drugs, and other contraband toward or across U.S. borders. AMO conducts critical aerial and maritime surveillance, interdiction, investigation, and multi-domain awareness law enforcement operations, in addition to providing assistance to ground personnel.    AMO's fleet of aerial assets provides critical surveillance and situational awareness across the Nation's land borders, in the littoral waters, in the maritime approaches to the United States, and in the international source and transit zones.    AMO P-3 Long-Range Trackers and Airborne Early Warning Aircraft provide detection and interdiction capability in both the air and marine environments. Sophisticated sensors and high-endurance capability greatly increase CBP's range to counter illicit trafficking. P-3s are an integral part of the successful counter-narcotic missions operating in coordination with Joint Interagency Task Force (JIATF)--South. P-3s patrol in a 42 million-square-mile area that includes more than 41 nations, the Pacific Ocean, Gulf of Mexico, Caribbean Sea, and maritime approaches to the United States.    Additionally, UAS are increasingly instrumental in CBP's layered and integrated approach to border security. AMO has deployed 6 UAS along the Southwest Border to detect, identify, and classify moving tracks of interest over land and sea. Four of these aircraft have Vehicle and Dismount Exploitation Radar (VADER) capability, which is a side-looking airborne radar that detects illegal border crossers and relays their positions to field agents, while simultaneously capturing terrain change detection information across larger stretches of the border. UAS are also used to meet surveillance and other mission requirements along the Northern borders and in the drug source and transit zones. During fiscal year 2015, CBP's VADER-equipped UAS recorded 9,371 detections of illegal activity.    Multi-Role Enforcement Aircraft (MEA) have a multi-mode radar for use over water and land, an electro-optical/infrared camera system, and a satellite communications system. This highly adaptable and capable aircraft replaces several older, single-mission assets. An equally important and more capable asset is the DHC-8 Maritime Patrol Aircraft (MPA). It bridges the gap between the longer range P-3s and UAS and the smaller MEA. The DHC-8 is an invaluable situational awareness platform for AMO in the Gulf of Mexico and the Caribbean.    AMO uses the Tethered Aerostat Radar System (TARS) to provide land, maritime, and aerial domain awareness, including detection of low-altitude aircraft and other potential threats. CBP assumed responsibility of TARS from the U.S. Air Force in 2013, providing radar detection and monitoring of low-altitude aircraft and surface vessels along the U.S.-Mexico border, the Florida Straits, and a portion of the Caribbean. With 8 aerostat sites--6 along the Southwest Border, one in the Florida Keys, and one in Puerto Rico--the TARS elevated sensor mitigates the effect of the curvature of the earth and terrain-masking limitations associated with ground-based radars, enabling maximum long-range radar detection. In fiscal year 2014 and fiscal year 2015 combined, TARS recorded nearly 1,000 suspected cross-border attempts of non-commercial aircraft, about 50 percent of all border-related radar detections in the air domain.    Some of the most important advancements in increasing CBP's situational awareness are in the area of data integration and exploitation. Downlink technology, paired with the BigPipe system, allows AMO to provide a video feed and situational awareness to its law enforcement partners in real time. In addition, the Minotaur mission integration system allows multiple aircraft to share information from multiple sources, providing a never-before-seen level of air, land, and sea domain awareness. As the Minotaur system evolves across the fleet, it will provide increased awareness for a greater number of users as the information is integrated into the Air and Marine Operations Center     A vital component of DHS's domain awareness capabilities, CBP's AMOC integrates the surveillance and law enforcement data capabilities of DHS's Federal and international partners. CBP agents assigned to AMOC serve to correlate information from USBP technology with AMOC's systems to close the gaps in situational awareness. This combined effort has contributed to a reduction in the ultra-light aircraft activity on the Southwest Border. Fiscal year 2015 suspect activity has decreased to 59 events from a high of 332 in fiscal year 2010. Office of Field Operations (OFO) officers from the National Targeting Center imbedded at AMOC use their tools to close the seam between commercial and general aviation suspect activity. Overall, AMOC evaluated almost 500,000 internal air tracks in fiscal year 2015 with a 99.99 percent successful resolution rate. AMOC has integrated DoD and FAA sensors into the CBP network to expand our awareness well beyond the U.S. air and maritime borders. The stemming of the panga-type boat threats on the West Coast is attributed to the whole of DHS (CBP, U.S. Coast Guard, and U.S. Immigration and Customs Enforcement/Homeland Security Investigations) coordinated efforts with Mexican partners facilitated through this integration and collaboration.    Coordinating with extensive law enforcement and intelligence databases, including Classified systems and communication networks, AMOC enhances our situational awareness and uses its capability to coordinate a law enforcement response to suspect activity in the air, maritime, and land domains. AMOC systems are connected to nearly 150 locations in various agencies to enable collaboration. For example, in fiscal year 15 AMOC coordinated over 400 Mexican responses to illicit air traffic preventing it from crossing our borders.    CBP uses tactics such as periodic reconnaissance patrols, sign-cutting, tracking, and UAS flights to understand the threats faced along the Nation's borders and in the approaches. For example, CBP uses change-detection capabilities in various ways to gather information and intelligence in low-threat areas. Change-detection capabilities increase the level of situational awareness in all areas, including those areas currently assessed as lower risk. This allows CBP to continue focusing resources in areas where the highest risk exists, but to quickly identify any emerging threat adaptation through information and intelligence and take appropriate steps to rapidly minimize any new risk.    CBP's continued deployment of fixed and mobile border surveillance technology, integrated with AMOC's enhanced domain awareness capabilities, allows CBP the flexibility to shift more officers and agents from detection duties to the interdiction of illegal activities on our borders. Additionally, CBP is looking to the future by working closely with the DHS Science &amp; Technology Directorate to identify and develop additional technologies to improve our situational awareness, surveillance, and detection capabilities along our land and maritime borders.                  intelligence and information sharing    Criminal intelligence sharing is a key component in building situational awareness efforts along the Southwest Border. CBP and participating component agencies contribute to several initiatives to improve the combined intelligence capabilities of Federal, State, local, Tribal, and international partners along the Southwest Border.    CBP hosts a monthly briefing/teleconference with State and local partners in order to monitor emerging trends and threats along the Southwest Border and provide a cross-component, multi-agency venue for discussing trends and threats. The weekly briefing focuses on narcotics, weapons, currency interdictions and alien apprehensions both at and between the Southwest Border. These briefings/teleconferences currently include participants from: DHS Joint Task Force West, ICE; USCG; Drug Enforcement Administration; Federal Bureau of Investigation; U.S. Northern Command; Joint Interagency Task Force-South; Bureau of Alcohol, Tobacco, Firearms, and Explosives; U.S. Attorneys' Offices; Naval Investigative Command; State Fusion Centers; and local law enforcement as appropriate.                        operational coordination    Secretary Johnson's Unity of Effort initiative has put in place new and strengthened management processes at DHS headquarters to enable more effective DHS component operations. In addition, DHS-wide border security activities are being strategically guided by the Southern Border and Approaches Campaign. Aimed at leveraging the range of unique Department roles, responsibilities, and capabilities, the Campaign enhances our operational approach to working together in a more unified way to address comprehensive threat environments. This cross-component strategy includes the development of 3 pilot DHS Joint Task Forces (JTF)--JTF-West, JTF-East, and JTF-Investigations.    The creation of the JTFs, unified joint task forces along the Southwest Border and in the approaches to the United States, increases information sharing with Federal, State, and local law enforcement agencies; improves situational awareness, border-wide criminal intelligence-led interdiction operations; and addresses transnational threats and associated violence.    Over the last 10 years, DHS has significantly increased its border security capabilities by adding thousands of front-line law enforcement personnel, and making substantial investments in infrastructure, situational awareness, and surveillance technology, strategically deployed to areas of increasing challenge. This shift in border security resources and overall border security management is responsible for the significant decrease in the illegal flow of people across the Southwest Border over the last 10 years.    USBP and AMO use a risk-based strategy to deploy resources and address emerging threats. In coordination with the new DHS joint requirements process, USBP uses the Capability Gap Analysis Process (CGAP) to conduct mission analysis and identify capability gaps. From this analysis, USBP performs follow-on planning to identify operational requirements over the short-, mid-, and long-term and to identify potential solutions, which may (or may not) include technology, tactical infrastructure, or other solutions depending on the nature, scope, severity, and geographic location of a given capability gap. Terrain, threat, and other considerations vary greatly across sectors and regions, making a ``one size fits all'' approach ineffective. The AMO CGAP process is in the developmental stage at this time. Once completed, it will interface with USBP processes to further identify aviation technology solutions targeting border security initiatives.    As conditions on the ground or in the approaches change, CBP will adjust its operational posture and will continue to invest and focus border security resources in the most effective and efficient way possible to meet the Nation's border security needs.                         indicators of success    Thanks to this subcommittee's support, the Nation's long-term investment in border security continues to produce significant and positive results. Border Patrol apprehensions--an indicator of illegal entries--totaled 337,117 Nation-wide in fiscal year 2015, compared to 486,651 in fiscal year 2014. This represents a 30 percent decline in the last year and almost 80 percent below its most recent peak in fiscal year 2000. CBP Officers and Agents also played a critical counter-narcotics role, resulting in the seizure or disruption of more than 3.3 million pounds of narcotics in fiscal year 2015. In addition, the agency seized more than $129 million in unreported currency through integrated counter network operations. In fiscal year 2015, AMO contributed to the arrest of 4,485 suspects, the apprehension of more than 51,130 individuals, and the interdiction of more than 213,000 pounds of cocaine.    USBP uses the Consequence Delivery System (CDS) on the Southwest Border as a means to standardize decision making in the application of consequences and examines the efficiency and effectiveness of individual consequences on various types of deportable aliens. Recidivism and the average number of apprehensions per recidivist are the strongest indicators of CDS effectiveness. Since CDS implementation in fiscal year 2011, the annually reported recidivism rate has decreased from an average of 27 percent to 14 percent in fiscal year 2015 and average apprehensions per recidivist decreased from 2.71 to 2.38 in fiscal year 2015. Contributing factors to the reduction included reducing the percent of apprehensions resulting in a Voluntary Return, the least effective and efficient consequence, from 59 percent in fiscal year 2010 to 4 percent in fiscal year 2015; and applying more effective and efficient consequences to illegal aliens with a higher probability of making subsequent illegal entries.    CBP reports on several performance measures, in accordance with the Government Performance and Results (GRPA) Act of 1993 and the 2010 GPRA Modernization Act, and we are committed to the on-going monitoring and reporting of program accomplishments and progress toward meeting mission goals. AMO reports annually on a GPRA metric that tracks the percent of detected conventional aircraft incursions resolved along all borders of the United States. In fiscal year 2015, AMO reported a 99.3 percent border security success rate for this metric.    CBP recognizes the need for relevant performance measures to verify the effectiveness of our operations and assets. However, due to the sheer size of the air, land, and sea borders, and the motivation of individuals to illegally enter the United States, challenges still exist to measure our success. Furthermore, as border security operations become increasingly integrated, the ability to quantify individual contributions to shared outcomes becomes increasingly complex. AMO and USBP will continue to collaborate with internal and external partners to enhance current metrics, and develop new metrics, that provide meaningful outcome-focused measurements of illegal activity, trends, and effectiveness. We look forward to sharing these efforts with this subcommittee in the future.                               conclusion    To fully implement the risk-informed, counter network/intelligence-driven operations that focus our capabilities against the highest threats, CBP continually evaluates its effectiveness and enhances situational awareness and adjusts its resources as required.    The continued deployment of sophisticated fixed and mobile surveillance systems, in conjunction with intelligence and operational integration, enhances situational awareness and better enables CBP to plan effectively, enhance its agility, and appropriately respond to threats in the Nation's border regions and approaches to secure the homeland.    Chairwoman McSally, Ranking Member Vela, thank you for the opportunity to testify today. We look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Chief Vitiello.    The Chair now recognizes General Alles for 5 minutes.</t>
   </si>
   <si>
+    <t>Alles</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Alles. Good morning, Chairman McSally and Ranking Member Higgins and distinguished Members of the subcommittee. It is an honor to appear before you today to discuss the role of the U.S. Customs and Border Protection's Air and Marine Operations.    AMO is participating in the securing of our Nation's borders. We are a critical component of CBP's border security mission. We secure our Nation from transnational threats, including terrorism, weapons and drug smuggling, and other illicit activities to our 4 core competencies--interdiction, investigation, domain awareness, and contingencies in National taskings. Based at our 74 locations Nation-wide, AMO detects and interdicts the unlawful movement of people, illegal drugs, and contraband toward and across the air border and the maritime approaches and within the Nation's interior.    Our greatest asset is our people, from front-line to support personnel. Of note is our cadre of experienced agents. Our air and marine agents average 17 years of experience; 63 percent are military veterans. I am sure the entire committee can understand the importance of experienced pilots. But the Chairman, I think, as an aviator, you, in particular, will appreciate that our air interdiction agents average over 5,000 hours of total flight time.    These agents are trained and empowered to conduct investigations, serve warrants, and make arrests under a broad range of authorities. They operate a fleet of specially-equipped aircraft, marine patrol and interdiction vessels, and an array of advanced surveillance technologies.    Much of our effort is aimed toward border security. We flew the majority of our flight hours in fiscal year 2015 in close partnership with the U.S. Border Patrol.    We are having an impact. For instance, as we increased our flight hours in Arizona over the last 3 years, we have seen a corresponding decrease in apprehensions. Across our entire program, AMO contributed to more than 4,000 arrests, 50,000 apprehensions, the interdiction of 230,000 pounds of cocaine, and the seizure of $49 million in fiscal year 2015.    We also participate in joint operations with a variety of Federal partners. It includes the Coast Guard, the United State Navy. We conduct counternarcotic operations in the southeast coastal and source and transit zones of Central and South America.    We are the leading provider of airborne detection and monitoring to the Joint Interagency Task Force-South, based out of Key West. We also provide direct assistance to partner nations with shared interest in border security, most notably Mexico and Canada.    AMO has been extensively involved in planning and development of all three of the DHS Southern Border and Approaches Campaign JTF, Joint Task Force. In particular, AMO holds a deputy director's position with Joint Task Force-East in Portsmouth, Virginia, which is responsible for the southeast maritime approaches to the United States.    Air and Marine agents also bring their unique skill sets and knowledge of the air and maritime environment to various regional task forces, such as ICE-led Border Enforcement Security Task Force, more commonly called BEST. AMO operates the Air and Marine Operations Center in Riverside, California, a state-of-the-art law enforcement domain awareness center. AMOC uses advanced surveillance systems and intelligence databases to detect threats to the homeland and coordinate their interdiction. In fiscal year 2015, AMOC evaluated almost half a million air tracks with a 99.99 successful resolution rate.    Over the last 10 years, AMO has aligned and deployed our limited resources in response to regional illegal activity with the focus on increasing effectiveness. Our approach is not only informed by analysis of trends in illegal activity, but also an assessment of our assets' effectiveness and rate of return. This method informs our effective use of personnel in our diverse mission sets. Implementing this concept is critical to the effective use of resources Congress and the American people have come to expect from Air and Marine Operations.    Moving forward, we will continue to work with our partners to enhance our detection, investigation, and interdiction capabilities to address emerging threats and to protect American security interests along the Nation's borders in source and transit zones, in our customs waters, and within the Nation's interior.    Chairman McSally, Ranking Member Higgins, and distinguished Members of the subcommittee, thank you for this opportunity to testify today. I look forward to answering your questions.</t>
   </si>
   <si>
@@ -220,6 +244,12 @@
     <t>412654</t>
   </si>
   <si>
+    <t>Hurd</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Madam Chairman.    My first question, I am going to go specific and get more general. First off, thanks for being here. You all three have a very difficult job. I represent over 800 miles of the border, and I know the men and women in Border Patrol, what they are doing in order to keep us safe.    My first question is, with only 56 of the almost 2,000 miles of the Southern Border being under operational control, I want to join my Governor, Governor Abbott, and our colleague from Texas, Congressman Cuellar, in asking why was a 50 percent cut made for flight hours in support of Operation Phalanx despite full funding for the number of flight hours that were requested, and this while the number of migrant crossings have increased?    I think, General Alles, it would probably be best for you. Can you provide some clarity?</t>
   </si>
   <si>
@@ -275,6 +305,12 @@
   </si>
   <si>
     <t>412617</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Norma</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you.    Chief, over the past several years, CBP and the Coast Guard have seen an increase of smugglers using small boats, what is also known as pangas, along the California coast. Can you describe the challenges that you are having detecting and interdicting these pangas on the coastline? It is my understanding that too often you don't know they are there until they are on shore and the smugglers are long gone.</t>
@@ -869,7 +905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,7 +913,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3773 +935,4417 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G57" t="s">
+        <v>76</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G65" t="s">
+        <v>76</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G69" t="s">
+        <v>76</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>97</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G76" t="s">
+        <v>97</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G78" t="s">
+        <v>97</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>97</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G83" t="s">
+        <v>97</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G86" t="s">
+        <v>97</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G88" t="s">
+        <v>97</v>
+      </c>
       <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G90" t="s">
+        <v>97</v>
+      </c>
       <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>30</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>22</v>
+      </c>
       <c r="H127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
       <c r="H129" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>22</v>
+      </c>
       <c r="H131" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>22</v>
+      </c>
       <c r="H133" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
       <c r="H135" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I135" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>27</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
       <c r="H137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I137" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>22</v>
+      </c>
       <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I139" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>22</v>
+      </c>
       <c r="H142" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>22</v>
+      </c>
       <c r="H143" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G149" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
       <c r="H150" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>30</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>27</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>30</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>30</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
       <c r="H158" t="s">
-        <v>168</v>
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22621.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22621.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412611</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>McSally</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>400641</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Higgins</t>
@@ -905,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,7 +922,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,4414 +947,4744 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H67" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G73" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G78" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G80" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G83" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G86" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G88" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G90" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>30</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>30</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>30</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>27</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>30</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>27</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>30</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s">
-        <v>27</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>30</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s">
-        <v>27</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>30</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>30</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>30</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>30</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>27</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s">
-        <v>30</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>33</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s">
-        <v>30</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s">
-        <v>30</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>33</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>33</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G127" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>27</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>30</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G129" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H129" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I129" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>30</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G131" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H131" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I131" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>30</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G133" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H133" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>30</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G135" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H135" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s">
-        <v>27</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>30</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G137" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I137" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s">
-        <v>30</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G139" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H139" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I139" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s">
-        <v>27</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>30</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s">
-        <v>30</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G142" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H142" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G143" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H143" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I143" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s">
-        <v>27</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>30</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s">
-        <v>27</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>30</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s">
-        <v>30</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>33</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s">
-        <v>30</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>33</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>27</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>30</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s">
-        <v>30</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>33</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s">
-        <v>30</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>33</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>180</v>
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
